--- a/src/test/resources/loginData.xlsx
+++ b/src/test/resources/loginData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shafi\IdeaProjects\com.sixberries.test.shafi\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{231F665B-648B-47B2-B760-4B5D2E5F2A87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26C9FA1C-FB32-4B8A-ADC5-5E99593ABAC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="registrationTest" sheetId="1" r:id="rId1"/>
@@ -44,12 +44,6 @@
     <t>password</t>
   </si>
   <si>
-    <t>shafijamadar@gmail.com</t>
-  </si>
-  <si>
-    <t>MH@9ayan@429</t>
-  </si>
-  <si>
     <t>Test123</t>
   </si>
   <si>
@@ -57,6 +51,12 @@
   </si>
   <si>
     <t>ABCed13</t>
+  </si>
+  <si>
+    <t>shafitest@gmail.com</t>
+  </si>
+  <si>
+    <t>mh1234</t>
   </si>
 </sst>
 </file>
@@ -422,7 +422,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -441,15 +441,15 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>123232</v>
@@ -457,16 +457,16 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B2" r:id="rId2" display="MH@9ayan@429" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/test/resources/loginData.xlsx
+++ b/src/test/resources/loginData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shafi\IdeaProjects\com.sixberries.test.shafi\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26C9FA1C-FB32-4B8A-ADC5-5E99593ABAC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C3D5282-1DA2-4714-915C-06B59D553934}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1125" yWindow="1125" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="registrationTest" sheetId="1" r:id="rId1"/>
@@ -422,7 +422,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
